--- a/medicine/Enfance/Benoît_Roels/Benoît_Roels.xlsx
+++ b/medicine/Enfance/Benoît_Roels/Benoît_Roels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Roels</t>
+          <t>Benoît_Roels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Roels, né le 15 décembre 1967 à Hélécine (province du Brabant wallon), est un auteur de bande dessinée réaliste, peintre et romancier belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Roels</t>
+          <t>Benoît_Roels</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Roels naît le 15 décembre 1967 à Hélécine[1]. Il est amateur de romans d’aventures depuis le plus jeune âge et passionné de dessin[2], fait des humanités classiques, puis intègre l'Institut Saint-Luc de Bruxelles en graphisme et obtient un diplôme en bande dessinée en 1988[3]. En 1989, la signature de Benoît Roels apparaît pour la première fois dans Hello Bédé[4]. Benoît Roels commence par adapter en bande dessinée des romans pour la jeunesse tirés de la collection « Signe de Piste » aux éditions du Lombard sur des scénarios de Jean-François Di Giorgio. Le premier album La Bande des Ayacks de Jean-Louis Foncine est publié en 1990 chez Le Lombard. Il réalise également les illustrations en cul-de-lampe pour le roman Les Vergnes de l'Ognon et les décors pour le Festival international du film fantastique de Bruxelles[3]. Toujours sur un scénario de J.-F. Di Giorgio, il signe, en mai 1993, Les Fous de Monk dans la collection « Histoires et Légendes » aux éditions du Lombard[3]. Il crée en 1993 sa propre série Oknam pour Dargaud (5 tomes). À partir du tome 2, elle est co-scénarisée par Pascal Renard. En juillet 1996, Roels épouse son modèle, Oknam[3].
-En 1998, il entreprend seul et devient ainsi un auteur complet[2], la série Bleu lézard aux Éditions Glénat (6 tomes).
-Il poursuit en 2004 avec l’adaptation en bande dessinée des Mystères d’Osiris, romans égyptiens de Christian Jacq sur scénario de Maryse et Jean-François Charles (4 tomes, Glénat, 2006-2011). Il dessine Le Fabuleux Trésor de Durbuy[5] et À la recherche des joyaux de la plus petite ville du monde[6], publiés tous deux par European Treasure.
-En 2012, il fait paraître un recueil d'aquarelles ayant pour sujet son village[7].
-Il travaille ensuite sur le tome 1 d’une série intitulée L'Ombre Inca[8] dont l’héroïne est une adolescente qui se croit habitée par l’esprit d’une jeune Inca du XVIe siècle (2015, Delcourt). L’intégrale de 143 planches paraît en 2017 sous le titre Quipou[9] aux Éditions Sandawe.
-En octobre 2018 paraît son premier roman : L’Éclipse du goéland aux Éditions L'Harmattan[2]. Deux ans plus tard, il publie Les Pantins innocents[10], son second roman chez Academia et organise un stage de bande dessinée en juillet pour les jeunes[11]. En 2021, il publie son troisième roman Le Mouchoir de Vermeer[12] chez Vérone Éditions[13].
-Il est aussi illustrateur de romans pour la jeunesse aux Éditions Averbode, peintre et maître-assistant à la Haute École Léonard de Vinci où il donne des cours d’éducation plastique[14] et d’histoire de l’art[15].
-Le graphisme de Benoît Roels s’inscrit dans une tradition réaliste classique[9].
-Benoît Roels demeure à Orp-le-Grand[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Roels naît le 15 décembre 1967 à Hélécine. Il est amateur de romans d’aventures depuis le plus jeune âge et passionné de dessin, fait des humanités classiques, puis intègre l'Institut Saint-Luc de Bruxelles en graphisme et obtient un diplôme en bande dessinée en 1988. En 1989, la signature de Benoît Roels apparaît pour la première fois dans Hello Bédé. Benoît Roels commence par adapter en bande dessinée des romans pour la jeunesse tirés de la collection « Signe de Piste » aux éditions du Lombard sur des scénarios de Jean-François Di Giorgio. Le premier album La Bande des Ayacks de Jean-Louis Foncine est publié en 1990 chez Le Lombard. Il réalise également les illustrations en cul-de-lampe pour le roman Les Vergnes de l'Ognon et les décors pour le Festival international du film fantastique de Bruxelles. Toujours sur un scénario de J.-F. Di Giorgio, il signe, en mai 1993, Les Fous de Monk dans la collection « Histoires et Légendes » aux éditions du Lombard. Il crée en 1993 sa propre série Oknam pour Dargaud (5 tomes). À partir du tome 2, elle est co-scénarisée par Pascal Renard. En juillet 1996, Roels épouse son modèle, Oknam.
+En 1998, il entreprend seul et devient ainsi un auteur complet, la série Bleu lézard aux Éditions Glénat (6 tomes).
+Il poursuit en 2004 avec l’adaptation en bande dessinée des Mystères d’Osiris, romans égyptiens de Christian Jacq sur scénario de Maryse et Jean-François Charles (4 tomes, Glénat, 2006-2011). Il dessine Le Fabuleux Trésor de Durbuy et À la recherche des joyaux de la plus petite ville du monde, publiés tous deux par European Treasure.
+En 2012, il fait paraître un recueil d'aquarelles ayant pour sujet son village.
+Il travaille ensuite sur le tome 1 d’une série intitulée L'Ombre Inca dont l’héroïne est une adolescente qui se croit habitée par l’esprit d’une jeune Inca du XVIe siècle (2015, Delcourt). L’intégrale de 143 planches paraît en 2017 sous le titre Quipou aux Éditions Sandawe.
+En octobre 2018 paraît son premier roman : L’Éclipse du goéland aux Éditions L'Harmattan. Deux ans plus tard, il publie Les Pantins innocents, son second roman chez Academia et organise un stage de bande dessinée en juillet pour les jeunes. En 2021, il publie son troisième roman Le Mouchoir de Vermeer chez Vérone Éditions.
+Il est aussi illustrateur de romans pour la jeunesse aux Éditions Averbode, peintre et maître-assistant à la Haute École Léonard de Vinci où il donne des cours d’éducation plastique et d’histoire de l’art.
+Le graphisme de Benoît Roels s’inscrit dans une tradition réaliste classique.
+Benoît Roels demeure à Orp-le-Grand.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Roels</t>
+          <t>Benoît_Roels</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,26 +566,209 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-One shots
-Les Fous de Monk[29], Le Lombard, Bruxelles, mai 1993Scénario : Jean-François Di Giorgio - Dessin : Benoît Roels - Couleurs : Anne-Marie D'Authenay -  (ISBN 2-8036-1032-9)
-Week-end des aventuriers de Durbuy[30]
-À la Recherche des joyaux de la plus petite ville du monde, European Treasure Holding, 2011Scénario : Benoît Despas - Dessin : Benoît Roels - Couleurs : quadrichromie,Version néerlandaise : Op zoek naar de juwelen van het kleinste stadje ter wereld[6]  (ISBN 978-2-919776-24-5)
-Le Fabuleux Trésor de Durbuy[5], European Treasure, 2010Scénario : Benoît Despas - Dessin : Benoît Roels - Couleurs : quadrichromie
-Collectifs
-Flash Back[31], Comic! Events, août 1995Scénario : collectif - Dessin : collectif dont Benoît Roels - Couleurs : noir et blancCe Flash Back a été réalisé en collaboration avec Bédéciné Illzach et édité à l'occasion du 10e festival BD Coxyde (15 juillet au 6 août 1995) à 1500 exemplaires numérotés à la main. Rares textes et titres des séries en deux langues : français et flamand. D/1995/6941/06. Format à l'italienne.
-Carrément Bruxelles - Ronduit Brussel, Glénat, coll. « Carrément 20/20 », Grenoble, septembre 2005Scénario : collectif - Dessin : collectif dont Benoît Roels - Couleurs : quadrichromie -  (ISBN 2-87176-218-X)
-Para BD
-À l'occasion, Benoît Roels réalise des portfolios, des ex-libris et des affiches[32].
-Carnets de voyage
-En route vers Jérusalem (dessinateur) (avec Emmanuel de Ruyver et Paul-Augustin Jones), Namur, Éditions fidélité, 2010  (ISBN 9782873564681).
-Orp-Jauche, mon village (écrivain et dessinateur), Hugues Ghenne éditeur, 2012.
-Romans
-L'Éclipse du goéland, L'Harmattan, 2018,  (ISBN 2343156549)[33]
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>One shots</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Fous de Monk, Le Lombard, Bruxelles, mai 1993Scénario : Jean-François Di Giorgio - Dessin : Benoît Roels - Couleurs : Anne-Marie D'Authenay -  (ISBN 2-8036-1032-9)
+Week-end des aventuriers de Durbuy
+À la Recherche des joyaux de la plus petite ville du monde, European Treasure Holding, 2011Scénario : Benoît Despas - Dessin : Benoît Roels - Couleurs : quadrichromie,Version néerlandaise : Op zoek naar de juwelen van het kleinste stadje ter wereld  (ISBN 978-2-919776-24-5)
+Le Fabuleux Trésor de Durbuy, European Treasure, 2010Scénario : Benoît Despas - Dessin : Benoît Roels - Couleurs : quadrichromie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Flash Back, Comic! Events, août 1995Scénario : collectif - Dessin : collectif dont Benoît Roels - Couleurs : noir et blancCe Flash Back a été réalisé en collaboration avec Bédéciné Illzach et édité à l'occasion du 10e festival BD Coxyde (15 juillet au 6 août 1995) à 1500 exemplaires numérotés à la main. Rares textes et titres des séries en deux langues : français et flamand. D/1995/6941/06. Format à l'italienne.
+Carrément Bruxelles - Ronduit Brussel, Glénat, coll. « Carrément 20/20 », Grenoble, septembre 2005Scénario : collectif - Dessin : collectif dont Benoît Roels - Couleurs : quadrichromie -  (ISBN 2-87176-218-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Para BD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion, Benoît Roels réalise des portfolios, des ex-libris et des affiches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carnets de voyage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En route vers Jérusalem (dessinateur) (avec Emmanuel de Ruyver et Paul-Augustin Jones), Namur, Éditions fidélité, 2010  (ISBN 9782873564681).
+Orp-Jauche, mon village (écrivain et dessinateur), Hugues Ghenne éditeur, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Éclipse du goéland, L'Harmattan, 2018,  (ISBN 2343156549)
 Les Pantins innocents, Academia, 2020,  (ISBN 978-2-8061-0510-3)
-Le Mouchoir de Vermeer, Vérone Éditions, 2021,  (ISBN 9791028416768).
-Romans jeunesse (illustrateur)
-1998 La Soirée (Frank Andriat) (Éditions Averbode)[2]
+Le Mouchoir de Vermeer, Vérone Éditions, 2021,  (ISBN 9791028416768).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans jeunesse (illustrateur)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1998 La Soirée (Frank Andriat) (Éditions Averbode)
 1999 Comme deux gouttes d’eau (Claude Raucy) (Éditions Averbode)
 1999 Un jour, je serai assassinée sous ma douche (Gudule) (Averbode)
 2000 Coup de foudre (Claude Raucy) (Averbode)
@@ -587,40 +784,42 @@
 2007 Le Messager 107 (Philippe Ébly) (Éditions Averbode)
 2007 Des Vacances mouvementées (Jacques Thomas-Bilstein) (Averbode)
 2008 L’Aventure du détective agonisant (Sir Conan Doyle) (Averbode)
-2013 L’Homme qui capturait la lumière (Geneviève Rousseau) (Averbode)[2]
+2013 L’Homme qui capturait la lumière (Geneviève Rousseau) (Averbode)
 2016 Le Mystère des pirates somaliens (Jean-Marie Albert) (Éditions du Triomphe, coll. « Titou et Maxou Mystère »,  (ISBN 9782843785542))
 2017 L’Étalon d'or (Jean-Dominique Formet) (Éditions du Triomphe)  (ISBN 978-2843785825)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beno%C3%AEt_Roels</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Benoît_Roels</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Roels</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2010 : exposition Carnet de Voyage[34]
-2021 : Expo Roels, Galerie Aarnor, Spy, du 22 janvier au 14 février 2021[35],[36].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2010 : exposition Carnet de Voyage
+2021 : Expo Roels, Galerie Aarnor, Spy, du 22 janvier au 14 février 2021,.</t>
         </is>
       </c>
     </row>
